--- a/updated_filtered_data_with_lengths_body-kalkar.xlsx
+++ b/updated_filtered_data_with_lengths_body-kalkar.xlsx
@@ -756,7 +756,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>67ceb41dc2b416b6d22942be</t>
+          <t>67d5f7f8edc0e4da26de46b5</t>
         </is>
       </c>
       <c r="W2" t="n">
@@ -919,7 +919,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>67ceb41dc2b416b6d22942bc</t>
+          <t>67d5f7f8edc0e4da26de46b3</t>
         </is>
       </c>
       <c r="W3" t="n">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>67ceb41dc2b416b6d22942c0</t>
+          <t>67d5f7f8edc0e4da26de46b7</t>
         </is>
       </c>
       <c r="W4" t="n">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>67ceb41bc2b416b6d229410a</t>
+          <t>67d5f7f8edc0e4da26de4501</t>
         </is>
       </c>
       <c r="W5" t="n">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>67ceb41bc2b416b6d229410e</t>
+          <t>67d5f7f8edc0e4da26de4505</t>
         </is>
       </c>
       <c r="W6" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>67ceb41bc2b416b6d229410c</t>
+          <t>67d5f7f8edc0e4da26de4503</t>
         </is>
       </c>
       <c r="W7" t="n">
@@ -1724,7 +1724,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S8" t="n">
-        <v>97.03797467389488</v>
+        <v>95.10610395956482</v>
       </c>
       <c r="T8" t="n">
         <v>514.9316657389987</v>
@@ -1734,11 +1734,11 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>67ceb41bc2b416b6d2294110</t>
+          <t>67d5f7f8edc0e4da26de4507</t>
         </is>
       </c>
       <c r="W8" t="n">
-        <v>94.66678294278201</v>
+        <v>92.8174818628511</v>
       </c>
       <c r="X8" t="n">
         <v>650</v>
@@ -1764,22 +1764,22 @@
         <v>502.442762268164</v>
       </c>
       <c r="AE8" t="n">
-        <v>16.24542031605046</v>
+        <v>13.97458386587313</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.283484611957181</v>
+        <v>4.192361747281566</v>
       </c>
       <c r="AG8" t="n">
-        <v>3.827481648641685</v>
+        <v>1.799227725030565</v>
       </c>
       <c r="AH8" t="n">
-        <v>13.22978294278201</v>
+        <v>11.3804818628511</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.212217057217998</v>
+        <v>4.061518137148909</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3.489782942782028</v>
+        <v>1.640481862851118</v>
       </c>
       <c r="AK8" t="n">
         <v>13.26870455460511</v>
@@ -1800,22 +1800,22 @@
         <v>3.870169620194926</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15.60097467389488</v>
+        <v>13.66910395956482</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.1589746738948747</v>
+        <v>1.772896040435185</v>
       </c>
       <c r="AS8" t="n">
-        <v>5.860974673894901</v>
+        <v>3.929103959564841</v>
       </c>
       <c r="AT8" t="n">
-        <v>19.15710877598006</v>
+        <v>16.78488151523856</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.1640961136003414</v>
+        <v>1.830010673556896</v>
       </c>
       <c r="AV8" t="n">
-        <v>6.428128446751816</v>
+        <v>4.309314804791605</v>
       </c>
       <c r="AW8" t="n">
         <v>0.9666152829498945</v>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>67ceb41fc2b416b6d22943d2</t>
+          <t>67d5f7f9edc0e4da26de47c9</t>
         </is>
       </c>
       <c r="W9" t="n">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>67ceb41fc2b416b6d22943d4</t>
+          <t>67d5f7f9edc0e4da26de47cb</t>
         </is>
       </c>
       <c r="W10" t="n">
@@ -2213,7 +2213,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S11" t="n">
-        <v>136.1015705663287</v>
+        <v>133.8723132801557</v>
       </c>
       <c r="T11" t="n">
         <v>723.4977819186519</v>
@@ -2223,11 +2223,11 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>67ceb41fc2b416b6d22943d6</t>
+          <t>67d5f7f9edc0e4da26de47cd</t>
         </is>
       </c>
       <c r="W11" t="n">
-        <v>137.2038696589638</v>
+        <v>134.8431016537121</v>
       </c>
       <c r="X11" t="n">
         <v>650</v>
@@ -2253,22 +2253,22 @@
         <v>729.0560044818762</v>
       </c>
       <c r="AE11" t="n">
-        <v>15.83077504724598</v>
+        <v>13.83775846225655</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.690968018635226</v>
+        <v>6.820800942473142</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.909935400866583</v>
+        <v>8.018794432331273</v>
       </c>
       <c r="AH11" t="n">
-        <v>18.75186965896381</v>
+        <v>16.39110165371213</v>
       </c>
       <c r="AI11" t="n">
-        <v>10.97086965896381</v>
+        <v>8.610101653712121</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12.37086965896378</v>
+        <v>10.0101016537121</v>
       </c>
       <c r="AK11" t="n">
         <v>18.96815558653881</v>
@@ -2289,22 +2289,22 @@
         <v>10.08319561857745</v>
       </c>
       <c r="AQ11" t="n">
-        <v>17.64957056632869</v>
+        <v>15.42031328015565</v>
       </c>
       <c r="AR11" t="n">
-        <v>9.868570566328685</v>
+        <v>7.639313280155648</v>
       </c>
       <c r="AS11" t="n">
-        <v>11.26857056632866</v>
+        <v>9.039313280155625</v>
       </c>
       <c r="AT11" t="n">
-        <v>14.90018789579635</v>
+        <v>13.01819579251988</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.817742243572351</v>
+        <v>6.051756101935031</v>
       </c>
       <c r="AV11" t="n">
-        <v>9.026916413391218</v>
+        <v>7.241124766812961</v>
       </c>
       <c r="AW11" t="n">
         <v>0.9978534497902369</v>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>67ceb421c2b416b6d2294526</t>
+          <t>67d5f7f9edc0e4da26de491d</t>
         </is>
       </c>
       <c r="W12" t="n">
@@ -2539,7 +2539,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S13" t="n">
-        <v>133.9684712072329</v>
+        <v>132.5627623929429</v>
       </c>
       <c r="T13" t="n">
         <v>714.257474491412</v>
@@ -2549,11 +2549,11 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>67ceb421c2b416b6d2294524</t>
+          <t>67d5f7f9edc0e4da26de491b</t>
         </is>
       </c>
       <c r="W13" t="n">
-        <v>129.0763586172657</v>
+        <v>127.6873312813942</v>
       </c>
       <c r="X13" t="n">
         <v>650</v>
@@ -2579,22 +2579,22 @@
         <v>688.0826502550432</v>
       </c>
       <c r="AE13" t="n">
-        <v>3.816481156749214</v>
+        <v>4.851539306551364</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.317341066249937</v>
+        <v>8.314725468779962</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.258809196646101</v>
+        <v>5.289107328847654</v>
       </c>
       <c r="AH13" t="n">
-        <v>5.12164138273431</v>
+        <v>6.5106687186058</v>
       </c>
       <c r="AI13" t="n">
-        <v>10.1906413827343</v>
+        <v>11.57966871860579</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5.741641382734343</v>
+        <v>7.130668718605833</v>
       </c>
       <c r="AK13" t="n">
         <v>4.500933830652514</v>
@@ -2615,22 +2615,22 @@
         <v>3.7984051318463</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.2295287927671552</v>
+        <v>1.635237607057121</v>
       </c>
       <c r="AR13" t="n">
-        <v>5.298528792767144</v>
+        <v>6.704237607057109</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.8495287927671882</v>
+        <v>2.255237607057154</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.1710374169265974</v>
+        <v>1.218526063769297</v>
       </c>
       <c r="AU13" t="n">
-        <v>3.804583133669243</v>
+        <v>4.81394559160254</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.6301300959569107</v>
+        <v>1.672801559923121</v>
       </c>
       <c r="AW13" t="n">
         <v>0.9981596710158644</v>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>67ceb41dc2b416b6d2294291</t>
+          <t>67d5f7f8edc0e4da26de4688</t>
         </is>
       </c>
       <c r="W14" t="n">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>67ceb41dc2b416b6d2294297</t>
+          <t>67d5f7f8edc0e4da26de468e</t>
         </is>
       </c>
       <c r="W15" t="n">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>67ceb41dc2b416b6d229428f</t>
+          <t>67d5f7f8edc0e4da26de4686</t>
         </is>
       </c>
       <c r="W16" t="n">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>67ceb41dc2b416b6d2294293</t>
+          <t>67d5f7f8edc0e4da26de468a</t>
         </is>
       </c>
       <c r="W17" t="n">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>67ceb420c2b416b6d229442e</t>
+          <t>67d5f7f9edc0e4da26de4825</t>
         </is>
       </c>
       <c r="W18" t="n">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>67ceb420c2b416b6d2294430</t>
+          <t>67d5f7f9edc0e4da26de4827</t>
         </is>
       </c>
       <c r="W19" t="n">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>67ceb41bc2b416b6d2294190</t>
+          <t>67d5f7f8edc0e4da26de4587</t>
         </is>
       </c>
       <c r="W20" t="n">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>67ceb41bc2b416b6d229418e</t>
+          <t>67d5f7f8edc0e4da26de4585</t>
         </is>
       </c>
       <c r="W21" t="n">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>67ceb41bc2b416b6d229418c</t>
+          <t>67d5f7f8edc0e4da26de4583</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>67ceb419c2b416b6d22940b8</t>
+          <t>67d5f7f8edc0e4da26de44af</t>
         </is>
       </c>
       <c r="W23" t="n">
@@ -4332,7 +4332,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S24" t="n">
-        <v>115.0065634375614</v>
+        <v>112.7110941990061</v>
       </c>
       <c r="T24" t="n">
         <v>610.2663394354464</v>
@@ -4342,11 +4342,11 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>67ceb419c2b416b6d22940ba</t>
+          <t>67d5f7f8edc0e4da26de44b1</t>
         </is>
       </c>
       <c r="W24" t="n">
-        <v>110.4804582405733</v>
+        <v>108.2710480997405</v>
       </c>
       <c r="X24" t="n">
         <v>650</v>
@@ -4372,22 +4372,22 @@
         <v>586.2378395285421</v>
       </c>
       <c r="AE24" t="n">
-        <v>4.241598566375672</v>
+        <v>2.156954380091965</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.157816590439655</v>
+        <v>4.114484001753087</v>
       </c>
       <c r="AG24" t="n">
-        <v>2.613111018764575</v>
+        <v>0.5610336498095675</v>
       </c>
       <c r="AH24" t="n">
-        <v>4.495458240573257</v>
+        <v>2.286048099740469</v>
       </c>
       <c r="AI24" t="n">
-        <v>2.436541759426746</v>
+        <v>4.645951900259533</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2.813458240573254</v>
+        <v>0.6040480997404671</v>
       </c>
       <c r="AK24" t="n">
         <v>4.515283412357959</v>
@@ -4408,22 +4408,22 @@
         <v>2.631524434002951</v>
       </c>
       <c r="AQ24" t="n">
-        <v>9.021563437561426</v>
+        <v>6.726094199006084</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.089563437561424</v>
+        <v>0.2059058009939179</v>
       </c>
       <c r="AS24" t="n">
-        <v>7.339563437561424</v>
+        <v>5.044094199006082</v>
       </c>
       <c r="AT24" t="n">
-        <v>8.512113447715643</v>
+        <v>6.34626994292219</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.850530422842817</v>
+        <v>0.1823514625733219</v>
       </c>
       <c r="AV24" t="n">
-        <v>6.816910880363921</v>
+        <v>4.684902708356397</v>
       </c>
       <c r="AW24" t="n">
         <v>0.9869780981320964</v>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>67ceb419c2b416b6d22940bc</t>
+          <t>67d5f7f8edc0e4da26de44b3</t>
         </is>
       </c>
       <c r="W25" t="n">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>67ceb41dc2b416b6d2294268</t>
+          <t>67d5f7f8edc0e4da26de465f</t>
         </is>
       </c>
       <c r="W26" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>67ceb41dc2b416b6d2294262</t>
+          <t>67d5f7f8edc0e4da26de4659</t>
         </is>
       </c>
       <c r="W27" t="n">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>67ceb41dc2b416b6d2294264</t>
+          <t>67d5f7f8edc0e4da26de465b</t>
         </is>
       </c>
       <c r="W28" t="n">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>67ceb41ec2b416b6d2294316</t>
+          <t>67d5f7f8edc0e4da26de470d</t>
         </is>
       </c>
       <c r="W29" t="n">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>67ceb41ec2b416b6d2294318</t>
+          <t>67d5f7f8edc0e4da26de470f</t>
         </is>
       </c>
       <c r="W30" t="n">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>67ceb41ec2b416b6d229431c</t>
+          <t>67d5f7f8edc0e4da26de4713</t>
         </is>
       </c>
       <c r="W31" t="n">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>67ceb41ec2b416b6d229431a</t>
+          <t>67d5f7f8edc0e4da26de4711</t>
         </is>
       </c>
       <c r="W32" t="n">
@@ -5809,7 +5809,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>67ceb41ec2b416b6d229431e</t>
+          <t>67d5f7f8edc0e4da26de4715</t>
         </is>
       </c>
       <c r="W33" t="n">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>67ceb41bc2b416b6d229414a</t>
+          <t>67d5f7f8edc0e4da26de4541</t>
         </is>
       </c>
       <c r="W34" t="n">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>67ceb41bc2b416b6d229414c</t>
+          <t>67d5f7f8edc0e4da26de4543</t>
         </is>
       </c>
       <c r="W35" t="n">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>67ceb41bc2b416b6d2294150</t>
+          <t>67d5f7f8edc0e4da26de4547</t>
         </is>
       </c>
       <c r="W36" t="n">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>67ceb41ec2b416b6d22942e5</t>
+          <t>67d5f7f8edc0e4da26de46dc</t>
         </is>
       </c>
       <c r="W37" t="n">
@@ -6614,7 +6614,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S38" t="n">
-        <v>154.7893645889469</v>
+        <v>154.1912744126589</v>
       </c>
       <c r="T38" t="n">
         <v>828.0045532795153</v>
@@ -6624,11 +6624,11 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>67ceb41ec2b416b6d22942e1</t>
+          <t>67d5f7f8edc0e4da26de46d8</t>
         </is>
       </c>
       <c r="W38" t="n">
-        <v>146.9250743296998</v>
+        <v>146.5783620567862</v>
       </c>
       <c r="X38" t="n">
         <v>650</v>
@@ -6654,22 +6654,22 @@
         <v>786.527909291009</v>
       </c>
       <c r="AE38" t="n">
-        <v>17.75201308731699</v>
+        <v>17.47414310301436</v>
       </c>
       <c r="AF38" t="n">
-        <v>7.780334604640434</v>
+        <v>7.52599568423051</v>
       </c>
       <c r="AG38" t="n">
-        <v>8.058568434999215</v>
+        <v>7.803572941270098</v>
       </c>
       <c r="AH38" t="n">
-        <v>22.15007432969978</v>
+        <v>21.80336205678617</v>
       </c>
       <c r="AI38" t="n">
-        <v>10.60607432969979</v>
+        <v>10.25936205678619</v>
       </c>
       <c r="AJ38" t="n">
-        <v>10.95707432969974</v>
+        <v>10.61036205678613</v>
       </c>
       <c r="AK38" t="n">
         <v>23.47806561289346</v>
@@ -6690,22 +6690,22 @@
         <v>9.035262424168492</v>
       </c>
       <c r="AQ38" t="n">
-        <v>30.01436458894685</v>
+        <v>29.41627441265894</v>
       </c>
       <c r="AR38" t="n">
-        <v>18.47036458894686</v>
+        <v>17.87227441265895</v>
       </c>
       <c r="AS38" t="n">
-        <v>18.82136458894681</v>
+        <v>18.2232744126589</v>
       </c>
       <c r="AT38" t="n">
-        <v>24.05479029368611</v>
+        <v>23.57545534975671</v>
       </c>
       <c r="AU38" t="n">
-        <v>13.54936919207657</v>
+        <v>13.11062611423129</v>
       </c>
       <c r="AV38" t="n">
-        <v>13.84249572616116</v>
+        <v>13.40262003755214</v>
       </c>
       <c r="AW38" t="n">
         <v>0.9985615624207167</v>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>67ceb41ec2b416b6d22942df</t>
+          <t>67d5f7f8edc0e4da26de46d6</t>
         </is>
       </c>
       <c r="W39" t="n">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>67ceb41ec2b416b6d22942dd</t>
+          <t>67d5f7f8edc0e4da26de46d4</t>
         </is>
       </c>
       <c r="W40" t="n">
@@ -7103,7 +7103,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S41" t="n">
-        <v>157.8451580676162</v>
+        <v>155.8450215814539</v>
       </c>
       <c r="T41" t="n">
         <v>840.6406663107607</v>
@@ -7113,11 +7113,11 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>67ceb41ec2b416b6d22942e3</t>
+          <t>67d5f7f8edc0e4da26de46da</t>
         </is>
       </c>
       <c r="W41" t="n">
-        <v>153.6906044791181</v>
+        <v>151.6989071821622</v>
       </c>
       <c r="X41" t="n">
         <v>650</v>
@@ -7143,22 +7143,22 @@
         <v>818.3969419185818</v>
       </c>
       <c r="AE41" t="n">
-        <v>9.811946783405091</v>
+        <v>8.388878936653999</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.2848894509233707</v>
+        <v>1.014715973376087</v>
       </c>
       <c r="AG41" t="n">
-        <v>1.578699871196708</v>
+        <v>0.2623277829520776</v>
       </c>
       <c r="AH41" t="n">
-        <v>13.73260447911809</v>
+        <v>11.7409071821622</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.4366044791181025</v>
+        <v>1.555092817837789</v>
       </c>
       <c r="AJ41" t="n">
-        <v>2.388604479118044</v>
+        <v>0.3969071821621526</v>
       </c>
       <c r="AK41" t="n">
         <v>14.30207659030927</v>
@@ -7179,22 +7179,22 @@
         <v>1.955080957495088</v>
       </c>
       <c r="AQ41" t="n">
-        <v>17.88715806761618</v>
+        <v>15.88702158145387</v>
       </c>
       <c r="AR41" t="n">
-        <v>4.591158067616192</v>
+        <v>2.591021581453873</v>
       </c>
       <c r="AS41" t="n">
-        <v>6.543158067616133</v>
+        <v>4.543021581453814</v>
       </c>
       <c r="AT41" t="n">
-        <v>12.78037558954557</v>
+        <v>11.3512779415638</v>
       </c>
       <c r="AU41" t="n">
-        <v>2.9957835146986</v>
+        <v>1.690671422249255</v>
       </c>
       <c r="AV41" t="n">
-        <v>4.324568127067805</v>
+        <v>3.002618327222253</v>
       </c>
       <c r="AW41" t="n">
         <v>0.9992889629302331</v>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>67ceb41fc2b416b6d22943f9</t>
+          <t>67d5f7f9edc0e4da26de47f0</t>
         </is>
       </c>
       <c r="W42" t="n">
@@ -7429,7 +7429,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S43" t="n">
-        <v>151.1523372766826</v>
+        <v>149.4689984157467</v>
       </c>
       <c r="T43" t="n">
         <v>805.6144603504836</v>
@@ -7439,11 +7439,11 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>67ceb41fc2b416b6d22943f5</t>
+          <t>67d5f7f9edc0e4da26de47ec</t>
         </is>
       </c>
       <c r="W43" t="n">
-        <v>145.0760865911707</v>
+        <v>143.5102917259067</v>
       </c>
       <c r="X43" t="n">
         <v>650</v>
@@ -7469,22 +7469,22 @@
         <v>773.3620641645058</v>
       </c>
       <c r="AE43" t="n">
-        <v>16.44467090825012</v>
+        <v>15.18789267498207</v>
       </c>
       <c r="AF43" t="n">
-        <v>11.53693133787242</v>
+        <v>10.33312195426052</v>
       </c>
       <c r="AG43" t="n">
-        <v>11.62274878138854</v>
+        <v>10.41801317681518</v>
       </c>
       <c r="AH43" t="n">
-        <v>20.48808659117066</v>
+        <v>18.92229172590666</v>
       </c>
       <c r="AI43" t="n">
-        <v>15.00608659117066</v>
+        <v>13.44029172590666</v>
       </c>
       <c r="AJ43" t="n">
-        <v>15.10608659117068</v>
+        <v>13.54029172590668</v>
       </c>
       <c r="AK43" t="n">
         <v>21.18342843469324</v>
@@ -7505,22 +7505,22 @@
         <v>12.15775058451432</v>
       </c>
       <c r="AQ43" t="n">
-        <v>26.56433727668258</v>
+        <v>24.88099841574669</v>
       </c>
       <c r="AR43" t="n">
-        <v>21.08233727668258</v>
+        <v>19.39899841574669</v>
       </c>
       <c r="AS43" t="n">
-        <v>21.1823372766826</v>
+        <v>19.49899841574671</v>
       </c>
       <c r="AT43" t="n">
-        <v>21.32174629714144</v>
+        <v>19.97062190238762</v>
       </c>
       <c r="AU43" t="n">
-        <v>16.20845489096839</v>
+        <v>14.91427570980756</v>
       </c>
       <c r="AV43" t="n">
-        <v>16.29786664359668</v>
+        <v>15.00269171019983</v>
       </c>
       <c r="AW43" t="n">
         <v>0.9995737148814701</v>
@@ -7602,7 +7602,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>67ceb41fc2b416b6d22943f7</t>
+          <t>67d5f7f9edc0e4da26de47ee</t>
         </is>
       </c>
       <c r="W44" t="n">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>67ceb41fc2b416b6d22943f3</t>
+          <t>67d5f7f9edc0e4da26de47ea</t>
         </is>
       </c>
       <c r="W45" t="n">
@@ -7918,7 +7918,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S46" t="n">
-        <v>141.9414812542173</v>
+        <v>141.3907744909647</v>
       </c>
       <c r="T46" t="n">
         <v>759.272173952114</v>
@@ -7928,11 +7928,11 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>67ceb41ec2b416b6d2294362</t>
+          <t>67d5f7f8edc0e4da26de4759</t>
         </is>
       </c>
       <c r="W46" t="n">
-        <v>139.0976581466194</v>
+        <v>138.1139033883522</v>
       </c>
       <c r="X46" t="n">
         <v>650</v>
@@ -7958,22 +7958,22 @@
         <v>742.8732467368065</v>
       </c>
       <c r="AE46" t="n">
-        <v>8.745657642125702</v>
+        <v>7.976564477138176</v>
       </c>
       <c r="AF46" t="n">
-        <v>4.186217911748305</v>
+        <v>4.863851635369587</v>
       </c>
       <c r="AG46" t="n">
-        <v>3.63716557386556</v>
+        <v>2.904201725839099</v>
       </c>
       <c r="AH46" t="n">
-        <v>11.18665814661941</v>
+        <v>10.20290338835221</v>
       </c>
       <c r="AI46" t="n">
-        <v>6.077341853380602</v>
+        <v>7.061096611647798</v>
       </c>
       <c r="AJ46" t="n">
-        <v>4.881658146619401</v>
+        <v>3.897903388352205</v>
       </c>
       <c r="AK46" t="n">
         <v>12.11357495730971</v>
@@ -7994,22 +7994,22 @@
         <v>4.327781305738289</v>
       </c>
       <c r="AQ46" t="n">
-        <v>14.03048125421725</v>
+        <v>13.47977449096473</v>
       </c>
       <c r="AR46" t="n">
-        <v>3.23351874578276</v>
+        <v>3.784225509035281</v>
       </c>
       <c r="AS46" t="n">
-        <v>7.725481254217243</v>
+        <v>7.174774490964722</v>
       </c>
       <c r="AT46" t="n">
-        <v>10.96894032117429</v>
+        <v>10.53840130322234</v>
       </c>
       <c r="AU46" t="n">
-        <v>2.227324777532468</v>
+        <v>2.606664721222856</v>
       </c>
       <c r="AV46" t="n">
-        <v>5.756006179752967</v>
+        <v>5.345692384637243</v>
       </c>
       <c r="AW46" t="n">
         <v>0.9963380278067208</v>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>67ceb41ec2b416b6d2294360</t>
+          <t>67d5f7f8edc0e4da26de4757</t>
         </is>
       </c>
       <c r="W47" t="n">
@@ -8254,7 +8254,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>67ceb41ec2b416b6d2294364</t>
+          <t>67d5f7f8edc0e4da26de475b</t>
         </is>
       </c>
       <c r="W48" t="n">
@@ -8407,7 +8407,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S49" t="n">
-        <v>115.8861695437022</v>
+        <v>113.6389608020369</v>
       </c>
       <c r="T49" t="n">
         <v>615.1084615374929</v>
@@ -8417,11 +8417,11 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>67ceb41ec2b416b6d2294366</t>
+          <t>67d5f7f8edc0e4da26de475d</t>
         </is>
       </c>
       <c r="W49" t="n">
-        <v>109.0806600572227</v>
+        <v>107.0334873200295</v>
       </c>
       <c r="X49" t="n">
         <v>650</v>
@@ -8447,22 +8447,22 @@
         <v>579.166356800672</v>
       </c>
       <c r="AE49" t="n">
-        <v>26.46006707539412</v>
+        <v>24.08672608603304</v>
       </c>
       <c r="AF49" t="n">
-        <v>5.894300553565917</v>
+        <v>3.906927860701027</v>
       </c>
       <c r="AG49" t="n">
-        <v>14.24929831289822</v>
+        <v>12.10512308855577</v>
       </c>
       <c r="AH49" t="n">
-        <v>22.82366005722271</v>
+        <v>20.77648732002952</v>
       </c>
       <c r="AI49" t="n">
-        <v>6.071660057222715</v>
+        <v>4.024487320029522</v>
       </c>
       <c r="AJ49" t="n">
-        <v>13.6046600572227</v>
+        <v>11.55748732002951</v>
       </c>
       <c r="AK49" t="n">
         <v>22.91037585694725</v>
@@ -8483,22 +8483,22 @@
         <v>14.34012302248444</v>
       </c>
       <c r="AQ49" t="n">
-        <v>29.62916954370222</v>
+        <v>27.38196080203689</v>
       </c>
       <c r="AR49" t="n">
-        <v>12.87716954370222</v>
+        <v>10.62996080203689</v>
       </c>
       <c r="AS49" t="n">
-        <v>20.41016954370221</v>
+        <v>18.16296080203688</v>
       </c>
       <c r="AT49" t="n">
-        <v>34.34987252478317</v>
+        <v>31.74462455457167</v>
       </c>
       <c r="AU49" t="n">
-        <v>12.50101403149455</v>
+        <v>10.319448593848</v>
       </c>
       <c r="AV49" t="n">
-        <v>21.37727758148876</v>
+        <v>19.02358791951577</v>
       </c>
       <c r="AW49" t="n">
         <v>0.992517078968194</v>
@@ -8580,7 +8580,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>67ceb41bc2b416b6d2294133</t>
+          <t>67d5f7f8edc0e4da26de452a</t>
         </is>
       </c>
       <c r="W50" t="n">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>67ceb41bc2b416b6d2294135</t>
+          <t>67d5f7f8edc0e4da26de452c</t>
         </is>
       </c>
       <c r="W51" t="n">
@@ -8896,7 +8896,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S52" t="n">
-        <v>119.5081991142444</v>
+        <v>118.8986913207108</v>
       </c>
       <c r="T52" t="n">
         <v>638.8823155755759</v>
@@ -8906,11 +8906,11 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>67ceb421c2b416b6d2294539</t>
+          <t>67d5f7f9edc0e4da26de4930</t>
         </is>
       </c>
       <c r="W52" t="n">
-        <v>120.5419960344295</v>
+        <v>119.958281828977</v>
       </c>
       <c r="X52" t="n">
         <v>650</v>
@@ -8936,22 +8936,22 @@
         <v>644.4919631081649</v>
       </c>
       <c r="AE52" t="n">
-        <v>31.32366928252479</v>
+        <v>30.68774575550385</v>
       </c>
       <c r="AF52" t="n">
-        <v>13.56672762377713</v>
+        <v>13.01679055319949</v>
       </c>
       <c r="AG52" t="n">
-        <v>27.79025955647268</v>
+        <v>27.17144626089499</v>
       </c>
       <c r="AH52" t="n">
-        <v>28.75199603442951</v>
+        <v>28.16828182897699</v>
       </c>
       <c r="AI52" t="n">
-        <v>14.39999603442952</v>
+        <v>13.816281828977</v>
       </c>
       <c r="AJ52" t="n">
-        <v>26.21399603442954</v>
+        <v>25.63028182897702</v>
       </c>
       <c r="AK52" t="n">
         <v>29.6906342724519</v>
@@ -8972,22 +8972,22 @@
         <v>28.78533868252475</v>
       </c>
       <c r="AQ52" t="n">
-        <v>27.71819911424444</v>
+        <v>27.10869132071083</v>
       </c>
       <c r="AR52" t="n">
-        <v>13.36619911424445</v>
+        <v>12.75669132071084</v>
       </c>
       <c r="AS52" t="n">
-        <v>25.18019911424447</v>
+        <v>24.57069132071086</v>
       </c>
       <c r="AT52" t="n">
-        <v>30.19740615997869</v>
+        <v>29.53338198138232</v>
       </c>
       <c r="AU52" t="n">
-        <v>12.59275226983141</v>
+        <v>12.01851417978825</v>
       </c>
       <c r="AV52" t="n">
-        <v>26.69429979883436</v>
+        <v>26.04814193103942</v>
       </c>
       <c r="AW52" t="n">
         <v>0.9990173999262795</v>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>67ceb421c2b416b6d229453b</t>
+          <t>67d5f7f9edc0e4da26de4932</t>
         </is>
       </c>
       <c r="W53" t="n">
@@ -9222,7 +9222,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S54" t="n">
-        <v>133.3677836372026</v>
+        <v>130.6869599830002</v>
       </c>
       <c r="T54" t="n">
         <v>707.647536688492</v>
@@ -9232,7 +9232,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>67ceb421c2b416b6d229453d</t>
+          <t>67d5f7f9edc0e4da26de4934</t>
         </is>
       </c>
       <c r="W54" t="n">
@@ -9298,22 +9298,22 @@
         <v>14.73256373480847</v>
       </c>
       <c r="AQ54" t="n">
-        <v>19.67078363720256</v>
+        <v>16.98995998300015</v>
       </c>
       <c r="AR54" t="n">
-        <v>13.19478363720256</v>
+        <v>10.51395998300015</v>
       </c>
       <c r="AS54" t="n">
-        <v>16.80978363720257</v>
+        <v>14.12895998300016</v>
       </c>
       <c r="AT54" t="n">
-        <v>17.30105775631948</v>
+        <v>14.94319109827009</v>
       </c>
       <c r="AU54" t="n">
-        <v>10.97982378504536</v>
+        <v>8.749020148452772</v>
       </c>
       <c r="AV54" t="n">
-        <v>14.42181886889152</v>
+        <v>12.12182774498547</v>
       </c>
       <c r="AW54" t="n">
         <v>0.9589395930669674</v>
@@ -9385,7 +9385,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S55" t="n">
-        <v>81.14682920502048</v>
+        <v>79.51781552538435</v>
       </c>
       <c r="T55" t="n">
         <v>430.5695219198405</v>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>67ceb41fc2b416b6d22943a4</t>
+          <t>67d5f7f9edc0e4da26de479b</t>
         </is>
       </c>
       <c r="W55" t="n">
@@ -9461,22 +9461,22 @@
         <v>33.69915186703159</v>
       </c>
       <c r="AQ55" t="n">
-        <v>18.11282920502048</v>
+        <v>16.48381552538435</v>
       </c>
       <c r="AR55" t="n">
-        <v>10.56282920502048</v>
+        <v>8.933815525384347</v>
       </c>
       <c r="AS55" t="n">
-        <v>12.36682920502048</v>
+        <v>10.73781552538435</v>
       </c>
       <c r="AT55" t="n">
-        <v>28.73501476190704</v>
+        <v>26.15067348634761</v>
       </c>
       <c r="AU55" t="n">
-        <v>14.96490593480176</v>
+        <v>12.65699808084601</v>
       </c>
       <c r="AV55" t="n">
-        <v>17.98026927162035</v>
+        <v>15.61182833001505</v>
       </c>
       <c r="AW55" t="n">
         <v>0.9223869321896211</v>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>67ceb41fc2b416b6d22943a2</t>
+          <t>67d5f7f9edc0e4da26de4799</t>
         </is>
       </c>
       <c r="W56" t="n">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>67ceb41fc2b416b6d22943a0</t>
+          <t>67d5f7f9edc0e4da26de4797</t>
         </is>
       </c>
       <c r="W57" t="n">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>67ceb420c2b416b6d2294488</t>
+          <t>67d5f7f9edc0e4da26de487f</t>
         </is>
       </c>
       <c r="W58" t="n">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>67ceb420c2b416b6d2294486</t>
+          <t>67d5f7f9edc0e4da26de487d</t>
         </is>
       </c>
       <c r="W59" t="n">
@@ -10210,7 +10210,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>67ceb420c2b416b6d229448a</t>
+          <t>67d5f7f9edc0e4da26de4881</t>
         </is>
       </c>
       <c r="W60" t="n">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>67ceb420c2b416b6d229448e</t>
+          <t>67d5f7f9edc0e4da26de4885</t>
         </is>
       </c>
       <c r="W61" t="n">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>67ceb41cc2b416b6d22941e2</t>
+          <t>67d5f7f8edc0e4da26de45d9</t>
         </is>
       </c>
       <c r="W62" t="n">
@@ -10699,7 +10699,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>67ceb41cc2b416b6d22941e4</t>
+          <t>67d5f7f8edc0e4da26de45db</t>
         </is>
       </c>
       <c r="W63" t="n">
@@ -10862,7 +10862,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>67ceb41cc2b416b6d22941e0</t>
+          <t>67d5f7f8edc0e4da26de45d7</t>
         </is>
       </c>
       <c r="W64" t="n">
@@ -11025,7 +11025,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>67ceb41cc2b416b6d2294218</t>
+          <t>67d5f7f8edc0e4da26de460f</t>
         </is>
       </c>
       <c r="W65" t="n">
@@ -11188,7 +11188,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>67ceb41cc2b416b6d229421a</t>
+          <t>67d5f7f8edc0e4da26de4611</t>
         </is>
       </c>
       <c r="W66" t="n">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>67ceb41cc2b416b6d2294205</t>
+          <t>67d5f7f8edc0e4da26de45fc</t>
         </is>
       </c>
       <c r="W67" t="n">
@@ -11514,7 +11514,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>67ceb41cc2b416b6d2294203</t>
+          <t>67d5f7f8edc0e4da26de45fa</t>
         </is>
       </c>
       <c r="W68" t="n">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>67ceb421c2b416b6d22944bb</t>
+          <t>67d5f7f9edc0e4da26de48b2</t>
         </is>
       </c>
       <c r="W69" t="n">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>67ceb421c2b416b6d22944bf</t>
+          <t>67d5f7f9edc0e4da26de48b6</t>
         </is>
       </c>
       <c r="W70" t="n">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>67ceb421c2b416b6d22944b7</t>
+          <t>67d5f7f9edc0e4da26de48ae</t>
         </is>
       </c>
       <c r="W71" t="n">
@@ -12156,7 +12156,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S72" t="n">
-        <v>133.1252973184184</v>
+        <v>130.4740364171812</v>
       </c>
       <c r="T72" t="n">
         <v>706.4263959549579</v>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>67ceb41dc2b416b6d2294239</t>
+          <t>67d5f7f8edc0e4da26de4630</t>
         </is>
       </c>
       <c r="W72" t="n">
@@ -12232,22 +12232,22 @@
         <v>1.430824826413357</v>
       </c>
       <c r="AQ72" t="n">
-        <v>16.00429731841838</v>
+        <v>13.3530364171812</v>
       </c>
       <c r="AR72" t="n">
-        <v>8.546702681581621</v>
+        <v>11.1979635828188</v>
       </c>
       <c r="AS72" t="n">
-        <v>10.8442973184184</v>
+        <v>8.193036417181219</v>
       </c>
       <c r="AT72" t="n">
-        <v>13.66475467116775</v>
+        <v>11.40106079796211</v>
       </c>
       <c r="AU72" t="n">
-        <v>6.032739483865281</v>
+        <v>7.904147314090859</v>
       </c>
       <c r="AV72" t="n">
-        <v>8.868342030583982</v>
+        <v>6.700171258970093</v>
       </c>
       <c r="AW72" t="n">
         <v>0.9711027212222835</v>
@@ -12319,7 +12319,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S73" t="n">
-        <v>133.4334365266837</v>
+        <v>133.071257438669</v>
       </c>
       <c r="T73" t="n">
         <v>714.1770796768891</v>
@@ -12329,11 +12329,11 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>67ceb41dc2b416b6d2294233</t>
+          <t>67d5f7f8edc0e4da26de462a</t>
         </is>
       </c>
       <c r="W73" t="n">
-        <v>134.07906815598</v>
+        <v>133.9456863761283</v>
       </c>
       <c r="X73" t="n">
         <v>650</v>
@@ -12359,22 +12359,22 @@
         <v>718.2499511205298</v>
       </c>
       <c r="AE73" t="n">
-        <v>13.96339015901267</v>
+        <v>13.85001944405765</v>
       </c>
       <c r="AF73" t="n">
-        <v>6.315065187238409</v>
+        <v>6.408262906483316</v>
       </c>
       <c r="AG73" t="n">
-        <v>11.33083802278443</v>
+        <v>11.22008616917974</v>
       </c>
       <c r="AH73" t="n">
-        <v>16.42806815598</v>
+        <v>16.29468637612827</v>
       </c>
       <c r="AI73" t="n">
-        <v>9.037931844019994</v>
+        <v>9.171313623871725</v>
       </c>
       <c r="AJ73" t="n">
-        <v>13.64606815597998</v>
+        <v>13.51268637612824</v>
       </c>
       <c r="AK73" t="n">
         <v>17.73231681823596</v>
@@ -12395,22 +12395,22 @@
         <v>12.41380420502348</v>
       </c>
       <c r="AQ73" t="n">
-        <v>15.7824365266837</v>
+        <v>15.420257438669</v>
       </c>
       <c r="AR73" t="n">
-        <v>9.683563473316298</v>
+        <v>10.045742561331</v>
       </c>
       <c r="AS73" t="n">
-        <v>13.00043652668367</v>
+        <v>12.63825743866897</v>
       </c>
       <c r="AT73" t="n">
-        <v>13.41462165785561</v>
+        <v>13.10677974574716</v>
       </c>
       <c r="AU73" t="n">
-        <v>6.766186737645631</v>
+        <v>7.019251773954874</v>
       </c>
       <c r="AV73" t="n">
-        <v>10.79474606352384</v>
+        <v>10.49401529370602</v>
       </c>
       <c r="AW73" t="n">
         <v>0.9979487322646443</v>
@@ -12492,7 +12492,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>67ceb41dc2b416b6d2294235</t>
+          <t>67d5f7f8edc0e4da26de462c</t>
         </is>
       </c>
       <c r="W74" t="n">
@@ -12655,7 +12655,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>67ceb41dc2b416b6d2294237</t>
+          <t>67d5f7f8edc0e4da26de462e</t>
         </is>
       </c>
       <c r="W75" t="n">
@@ -12818,7 +12818,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>67ceb422c2b416b6d22945ab</t>
+          <t>67d5f7f9edc0e4da26de49a2</t>
         </is>
       </c>
       <c r="W76" t="n">
@@ -12981,7 +12981,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>67ceb422c2b416b6d22945af</t>
+          <t>67d5f7f9edc0e4da26de49a6</t>
         </is>
       </c>
       <c r="W77" t="n">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>67ceb422c2b416b6d22945ad</t>
+          <t>67d5f7f9edc0e4da26de49a4</t>
         </is>
       </c>
       <c r="W78" t="n">
@@ -13307,7 +13307,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>67ceb422c2b416b6d22945b1</t>
+          <t>67d5f7f9edc0e4da26de49a8</t>
         </is>
       </c>
       <c r="W79" t="n">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>67ceb41cc2b416b6d22941c6</t>
+          <t>67d5f7f8edc0e4da26de45bd</t>
         </is>
       </c>
       <c r="W80" t="n">
@@ -13621,7 +13621,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S81" t="n">
-        <v>78.70324874175196</v>
+        <v>77.84719426407564</v>
       </c>
       <c r="T81" t="n">
         <v>389.5621507556656</v>
@@ -13631,11 +13631,11 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>67ceb423c2b416b6d22945da</t>
+          <t>67d5f7f9edc0e4da26de49d1</t>
         </is>
       </c>
       <c r="W81" t="n">
-        <v>73.98804814982145</v>
+        <v>72.86513352629879</v>
       </c>
       <c r="X81" t="n">
         <v>700</v>
@@ -13661,22 +13661,22 @@
         <v>365.4365795662899</v>
       </c>
       <c r="AE81" t="n">
-        <v>13.68958980596116</v>
+        <v>11.96412594892177</v>
       </c>
       <c r="AF81" t="n">
-        <v>7.374844264673509</v>
+        <v>8.780613770454329</v>
       </c>
       <c r="AG81" t="n">
-        <v>2.659943874542422</v>
+        <v>1.101876658154886</v>
       </c>
       <c r="AH81" t="n">
-        <v>8.909048149821459</v>
+        <v>7.786133526298798</v>
       </c>
       <c r="AI81" t="n">
-        <v>5.890951850178553</v>
+        <v>7.013866473701214</v>
       </c>
       <c r="AJ81" t="n">
-        <v>1.917048149821468</v>
+        <v>0.7941335262988076</v>
       </c>
       <c r="AK81" t="n">
         <v>9.100900327602048</v>
@@ -13697,22 +13697,22 @@
         <v>2.926142730920978</v>
       </c>
       <c r="AQ81" t="n">
-        <v>13.62424874175197</v>
+        <v>12.76819426407565</v>
       </c>
       <c r="AR81" t="n">
-        <v>1.175751258248042</v>
+        <v>2.031805735924365</v>
       </c>
       <c r="AS81" t="n">
-        <v>6.63224874175198</v>
+        <v>5.776194264075656</v>
       </c>
       <c r="AT81" t="n">
-        <v>20.9349386772261</v>
+        <v>19.6195305153362</v>
       </c>
       <c r="AU81" t="n">
-        <v>1.471915344769015</v>
+        <v>2.543604371517377</v>
       </c>
       <c r="AV81" t="n">
-        <v>9.202382014613342</v>
+        <v>8.014588758412755</v>
       </c>
       <c r="AW81" t="n">
         <v>0.9823384762626989</v>
@@ -13794,7 +13794,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>67ceb423c2b416b6d22945d6</t>
+          <t>67d5f7f9edc0e4da26de49cd</t>
         </is>
       </c>
       <c r="W82" t="n">
@@ -13947,7 +13947,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S83" t="n">
-        <v>50.69749893177121</v>
+        <v>50.11877108699561</v>
       </c>
       <c r="T83" t="n">
         <v>250.8728952381469</v>
@@ -13957,7 +13957,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>67ceb423c2b416b6d22945e0</t>
+          <t>67d5f7f9edc0e4da26de49d7</t>
         </is>
       </c>
       <c r="W83" t="n">
@@ -14023,22 +14023,22 @@
         <v>39.51129666257648</v>
       </c>
       <c r="AQ83" t="n">
-        <v>16.29649893177121</v>
+        <v>15.71777108699561</v>
       </c>
       <c r="AR83" t="n">
-        <v>11.53449893177122</v>
+        <v>10.95577108699562</v>
       </c>
       <c r="AS83" t="n">
-        <v>13.79649893177122</v>
+        <v>13.21777108699562</v>
       </c>
       <c r="AT83" t="n">
-        <v>47.37216630845385</v>
+        <v>45.68986682653298</v>
       </c>
       <c r="AU83" t="n">
-        <v>29.45254176587907</v>
+        <v>27.97480041619799</v>
       </c>
       <c r="AV83" t="n">
-        <v>37.3878727724756</v>
+        <v>35.81954713150218</v>
       </c>
       <c r="AW83" t="inlineStr"/>
     </row>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>67ceb420c2b416b6d2294445</t>
+          <t>67d5f7f9edc0e4da26de483c</t>
         </is>
       </c>
       <c r="W84" t="n">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>67ceb420c2b416b6d2294447</t>
+          <t>67d5f7f9edc0e4da26de483e</t>
         </is>
       </c>
       <c r="W85" t="n">
@@ -14444,7 +14444,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>67ceb420c2b416b6d2294464</t>
+          <t>67d5f7f9edc0e4da26de485b</t>
         </is>
       </c>
       <c r="W86" t="n">
@@ -14607,7 +14607,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>67ceb421c2b416b6d2294558</t>
+          <t>67d5f7f9edc0e4da26de494f</t>
         </is>
       </c>
       <c r="W87" t="n">
@@ -14770,7 +14770,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>67ceb420c2b416b6d229447b</t>
+          <t>67d5f7f9edc0e4da26de4872</t>
         </is>
       </c>
       <c r="W88" t="n">
@@ -14923,7 +14923,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S89" t="n">
-        <v>114.9791543785689</v>
+        <v>113.0548898039532</v>
       </c>
       <c r="T89" t="n">
         <v>611.1049422432292</v>
@@ -14933,11 +14933,11 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>67ceb41bc2b416b6d2294171</t>
+          <t>67d5f7f8edc0e4da26de4568</t>
         </is>
       </c>
       <c r="W89" t="n">
-        <v>121.3203596054041</v>
+        <v>119.4486651748639</v>
       </c>
       <c r="X89" t="n">
         <v>650</v>
@@ -14963,22 +14963,22 @@
         <v>645.229745411215</v>
       </c>
       <c r="AE89" t="n">
-        <v>28.06692522632703</v>
+        <v>26.09114678763663</v>
       </c>
       <c r="AF89" t="n">
-        <v>8.008332611087575</v>
+        <v>6.342012174372518</v>
       </c>
       <c r="AG89" t="n">
-        <v>18.27478391947757</v>
+        <v>16.45007572494655</v>
       </c>
       <c r="AH89" t="n">
-        <v>26.58835960540412</v>
+        <v>24.71666517486393</v>
       </c>
       <c r="AI89" t="n">
-        <v>8.995359605404118</v>
+        <v>7.12366517486393</v>
       </c>
       <c r="AJ89" t="n">
-        <v>18.74535960540412</v>
+        <v>16.87366517486393</v>
       </c>
       <c r="AK89" t="n">
         <v>26.88769925271524</v>
@@ -14999,22 +14999,22 @@
         <v>18.56660906918375</v>
       </c>
       <c r="AQ89" t="n">
-        <v>20.24715437856895</v>
+        <v>18.32288980395317</v>
       </c>
       <c r="AR89" t="n">
-        <v>2.654154378568947</v>
+        <v>0.7298898039531707</v>
       </c>
       <c r="AS89" t="n">
-        <v>12.40415437856895</v>
+        <v>10.47988980395317</v>
       </c>
       <c r="AT89" t="n">
-        <v>21.37308869080031</v>
+        <v>19.34181670813788</v>
       </c>
       <c r="AU89" t="n">
-        <v>2.36292399605515</v>
+        <v>0.6498017395532346</v>
       </c>
       <c r="AV89" t="n">
-        <v>12.09276566275305</v>
+        <v>10.21680702310814</v>
       </c>
       <c r="AW89" t="n">
         <v>0.9962471364953689</v>
@@ -15096,7 +15096,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>67ceb41bc2b416b6d2294175</t>
+          <t>67d5f7f8edc0e4da26de456c</t>
         </is>
       </c>
       <c r="W90" t="n">
@@ -15259,7 +15259,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>67ceb41ac2b416b6d22940e3</t>
+          <t>67d5f7f8edc0e4da26de44da</t>
         </is>
       </c>
       <c r="W91" t="n">
@@ -15412,7 +15412,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S92" t="n">
-        <v>153.4429163968209</v>
+        <v>150.3679485412647</v>
       </c>
       <c r="T92" t="n">
         <v>814.1907971102211</v>
@@ -15422,11 +15422,11 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>67ceb41ac2b416b6d22940e1</t>
+          <t>67d5f7f8edc0e4da26de44d8</t>
         </is>
       </c>
       <c r="W92" t="n">
-        <v>143.722717715844</v>
+        <v>140.8370248374829</v>
       </c>
       <c r="X92" t="n">
         <v>650</v>
@@ -15452,22 +15452,22 @@
         <v>762.5993547589271</v>
       </c>
       <c r="AE92" t="n">
-        <v>7.124651706749957</v>
+        <v>4.973781966461122</v>
       </c>
       <c r="AF92" t="n">
-        <v>2.495091935648683</v>
+        <v>0.437175403271121</v>
       </c>
       <c r="AG92" t="n">
-        <v>4.942329333823029</v>
+        <v>2.83527668960591</v>
       </c>
       <c r="AH92" t="n">
-        <v>9.558717715844011</v>
+        <v>6.673024837482899</v>
       </c>
       <c r="AI92" t="n">
-        <v>3.498717715844009</v>
+        <v>0.6130248374828966</v>
       </c>
       <c r="AJ92" t="n">
-        <v>6.768717715843991</v>
+        <v>3.883024837482878</v>
       </c>
       <c r="AK92" t="n">
         <v>9.578759591757887</v>
@@ -15488,22 +15488,22 @@
         <v>4.956963353942101</v>
       </c>
       <c r="AQ92" t="n">
-        <v>19.27891639682088</v>
+        <v>16.20394854126471</v>
       </c>
       <c r="AR92" t="n">
-        <v>13.21891639682087</v>
+        <v>10.14394854126471</v>
       </c>
       <c r="AS92" t="n">
-        <v>16.48891639682085</v>
+        <v>13.41394854126469</v>
       </c>
       <c r="AT92" t="n">
-        <v>14.3696642890946</v>
+        <v>12.07771722762046</v>
       </c>
       <c r="AU92" t="n">
-        <v>9.426999940681249</v>
+        <v>7.23410296473122</v>
       </c>
       <c r="AV92" t="n">
-        <v>12.039747942244</v>
+        <v>9.794491976331241</v>
       </c>
       <c r="AW92" t="n">
         <v>0.9829268617361677</v>
@@ -15585,7 +15585,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>67ceb41ac2b416b6d22940dd</t>
+          <t>67d5f7f8edc0e4da26de44d4</t>
         </is>
       </c>
       <c r="W93" t="n">
@@ -15738,7 +15738,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S94" t="n">
-        <v>94.82439945617843</v>
+        <v>94.25404233782957</v>
       </c>
       <c r="T94" t="n">
         <v>506.6926854054437</v>
@@ -15748,11 +15748,11 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>67ceb41ac2b416b6d22940df</t>
+          <t>67d5f7f8edc0e4da26de44d6</t>
         </is>
       </c>
       <c r="W94" t="n">
-        <v>100.7972832338952</v>
+        <v>100.0666785214441</v>
       </c>
       <c r="X94" t="n">
         <v>650</v>
@@ -15778,22 +15778,22 @@
         <v>538.2766507839603</v>
       </c>
       <c r="AE94" t="n">
-        <v>19.5144396233002</v>
+        <v>18.64816813270746</v>
       </c>
       <c r="AF94" t="n">
-        <v>1.125819575364006</v>
+        <v>1.842485142533569</v>
       </c>
       <c r="AG94" t="n">
-        <v>4.023037630827106</v>
+        <v>3.269051818330576</v>
       </c>
       <c r="AH94" t="n">
-        <v>16.45828323389516</v>
+        <v>15.72767852144415</v>
       </c>
       <c r="AI94" t="n">
-        <v>1.147716766104836</v>
+        <v>1.878321478555847</v>
       </c>
       <c r="AJ94" t="n">
-        <v>3.898283233895157</v>
+        <v>3.167678521444145</v>
       </c>
       <c r="AK94" t="n">
         <v>17.12105333554824</v>
@@ -15814,22 +15814,22 @@
         <v>4.707017962567455</v>
       </c>
       <c r="AQ94" t="n">
-        <v>10.48539945617843</v>
+        <v>9.915042337829576</v>
       </c>
       <c r="AR94" t="n">
-        <v>7.120600543821567</v>
+        <v>7.690957662170419</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.074600543821575</v>
+        <v>2.644957662170427</v>
       </c>
       <c r="AT94" t="n">
-        <v>12.43244460590999</v>
+        <v>11.75617725824301</v>
       </c>
       <c r="AU94" t="n">
-        <v>6.984747210575867</v>
+        <v>7.54422253388633</v>
       </c>
       <c r="AV94" t="n">
-        <v>2.140992728326995</v>
+        <v>2.729602640038005</v>
       </c>
       <c r="AW94" t="n">
         <v>0.992275295919967</v>
@@ -15911,7 +15911,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>67ceb421c2b416b6d22944f7</t>
+          <t>67d5f7f9edc0e4da26de48ee</t>
         </is>
       </c>
       <c r="W95" t="n">
@@ -16074,7 +16074,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>67ceb421c2b416b6d22944f5</t>
+          <t>67d5f7f9edc0e4da26de48ec</t>
         </is>
       </c>
       <c r="W96" t="n">
@@ -16227,7 +16227,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S97" t="n">
-        <v>115.7533907130172</v>
+        <v>113.4676364056368</v>
       </c>
       <c r="T97" t="n">
         <v>614.2945893751389</v>
@@ -16237,11 +16237,11 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>67ceb421c2b416b6d22944f9</t>
+          <t>67d5f7f9edc0e4da26de48f0</t>
         </is>
       </c>
       <c r="W97" t="n">
-        <v>126.485926336048</v>
+        <v>123.9685327096062</v>
       </c>
       <c r="X97" t="n">
         <v>650</v>
@@ -16267,22 +16267,22 @@
         <v>671.1990754211122</v>
       </c>
       <c r="AE97" t="n">
-        <v>37.78723538208675</v>
+        <v>35.04491678425041</v>
       </c>
       <c r="AF97" t="n">
-        <v>19.32184288899286</v>
+        <v>16.94703285687916</v>
       </c>
       <c r="AG97" t="n">
-        <v>20.91304413200394</v>
+        <v>18.50656512308329</v>
       </c>
       <c r="AH97" t="n">
-        <v>34.68792633604799</v>
+        <v>32.17053270960619</v>
       </c>
       <c r="AI97" t="n">
-        <v>20.48192633604799</v>
+        <v>17.96453270960619</v>
       </c>
       <c r="AJ97" t="n">
-        <v>21.876926336048</v>
+        <v>19.3595327096062</v>
       </c>
       <c r="AK97" t="n">
         <v>34.71667213339872</v>
@@ -16303,22 +16303,22 @@
         <v>20.94052340945686</v>
       </c>
       <c r="AQ97" t="n">
-        <v>23.95539071301718</v>
+        <v>21.66963640563682</v>
       </c>
       <c r="AR97" t="n">
-        <v>9.749390713017178</v>
+        <v>7.463636405636819</v>
       </c>
       <c r="AS97" t="n">
-        <v>11.14439071301719</v>
+        <v>8.85863640563683</v>
       </c>
       <c r="AT97" t="n">
-        <v>26.09576539033223</v>
+        <v>23.60578270293124</v>
       </c>
       <c r="AU97" t="n">
-        <v>9.197191344682443</v>
+        <v>7.040900726045073</v>
       </c>
       <c r="AV97" t="n">
-        <v>10.65337658616103</v>
+        <v>8.468331028531798</v>
       </c>
       <c r="AW97" t="n">
         <v>0.9912739540290587</v>
@@ -16400,7 +16400,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>67ceb421c2b416b6d22944fb</t>
+          <t>67d5f7f9edc0e4da26de48f2</t>
         </is>
       </c>
       <c r="W98" t="n">
@@ -16563,7 +16563,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>67ceb421c2b416b6d22944e2</t>
+          <t>67d5f7f9edc0e4da26de48d9</t>
         </is>
       </c>
       <c r="W99" t="n">
@@ -16726,7 +16726,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>67ceb421c2b416b6d22944e0</t>
+          <t>67d5f7f9edc0e4da26de48d7</t>
         </is>
       </c>
       <c r="W100" t="n">
@@ -16889,7 +16889,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>67ceb41fc2b416b6d22943c3</t>
+          <t>67d5f7f9edc0e4da26de47ba</t>
         </is>
       </c>
       <c r="W101" t="n">
@@ -17052,7 +17052,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>67ceb422c2b416b6d2294578</t>
+          <t>67d5f7f9edc0e4da26de496f</t>
         </is>
       </c>
       <c r="W102" t="n">
@@ -17215,7 +17215,7 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>67ceb422c2b416b6d2294578</t>
+          <t>67d5f7f9edc0e4da26de496f</t>
         </is>
       </c>
       <c r="W103" t="n">
@@ -17378,7 +17378,7 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>67ceb422c2b416b6d2294578</t>
+          <t>67d5f7f9edc0e4da26de496f</t>
         </is>
       </c>
       <c r="W104" t="n">
@@ -17541,7 +17541,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>67ceb422c2b416b6d229457c</t>
+          <t>67d5f7f9edc0e4da26de4973</t>
         </is>
       </c>
       <c r="W105" t="n">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>67ceb422c2b416b6d229457a</t>
+          <t>67d5f7f9edc0e4da26de4971</t>
         </is>
       </c>
       <c r="W106" t="n">
@@ -17867,7 +17867,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>67ceb422c2b416b6d2294569</t>
+          <t>67d5f7f9edc0e4da26de4960</t>
         </is>
       </c>
       <c r="W107" t="n">
@@ -18030,7 +18030,7 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>67ceb423c2b416b6d2294603</t>
+          <t>67d5f7f9edc0e4da26de49fa</t>
         </is>
       </c>
       <c r="W108" t="n">
@@ -18193,7 +18193,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>67ceb423c2b416b6d2294601</t>
+          <t>67d5f7f9edc0e4da26de49f8</t>
         </is>
       </c>
       <c r="W109" t="n">
@@ -18346,7 +18346,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S110" t="n">
-        <v>132.172586445059</v>
+        <v>103.493629008867</v>
       </c>
       <c r="T110" t="n">
         <v>864.3610998661266</v>
@@ -18356,17 +18356,17 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>67ceb424c2b416b6d2294648</t>
+          <t>67d5f7f9edc0e4da26de4a3f</t>
         </is>
       </c>
       <c r="W110" t="n">
-        <v>127.3456180905039</v>
+        <v>99.71402171237571</v>
       </c>
       <c r="X110" t="n">
-        <v>530</v>
+        <v>415</v>
       </c>
       <c r="Y110" t="n">
-        <v>127.9246998869997</v>
+        <v>100.1674536851036</v>
       </c>
       <c r="Z110" t="n">
         <v>818.0424386</v>
@@ -18386,58 +18386,58 @@
         <v>832.3430337167208</v>
       </c>
       <c r="AE110" t="n">
-        <v>19.87613605303905</v>
+        <v>6.13472365658262</v>
       </c>
       <c r="AF110" t="n">
-        <v>1.941737184201011</v>
+        <v>20.17769635576712</v>
       </c>
       <c r="AG110" t="n">
-        <v>15.60794357893463</v>
+        <v>9.476798895739853</v>
       </c>
       <c r="AH110" t="n">
-        <v>21.11461809050391</v>
+        <v>6.516978287624283</v>
       </c>
       <c r="AI110" t="n">
-        <v>2.425618090503903</v>
+        <v>25.20597828762429</v>
       </c>
       <c r="AJ110" t="n">
-        <v>17.19261809050387</v>
+        <v>10.43897828762432</v>
       </c>
       <c r="AK110" t="n">
-        <v>21.69369988699975</v>
+        <v>6.063546314896413</v>
       </c>
       <c r="AL110" t="n">
-        <v>3.004699886999745</v>
+        <v>24.75254631489642</v>
       </c>
       <c r="AM110" t="n">
-        <v>17.77169988699971</v>
+        <v>9.985546314896453</v>
       </c>
       <c r="AN110" t="n">
-        <v>20.42125169394975</v>
+        <v>5.70788782454878</v>
       </c>
       <c r="AO110" t="n">
-        <v>2.405299301152534</v>
+        <v>19.81471847173905</v>
       </c>
       <c r="AP110" t="n">
-        <v>16.13365036540059</v>
+        <v>9.065160562941045</v>
       </c>
       <c r="AQ110" t="n">
-        <v>25.94158644505904</v>
+        <v>2.737370991133005</v>
       </c>
       <c r="AR110" t="n">
-        <v>7.252586445059038</v>
+        <v>21.42637099113301</v>
       </c>
       <c r="AS110" t="n">
-        <v>22.01958644505901</v>
+        <v>6.659370991133045</v>
       </c>
       <c r="AT110" t="n">
-        <v>24.41997763840973</v>
+        <v>2.576809962377277</v>
       </c>
       <c r="AU110" t="n">
-        <v>5.805784858356578</v>
+        <v>17.15207412034343</v>
       </c>
       <c r="AV110" t="n">
-        <v>19.99000158421377</v>
+        <v>6.045564797266569</v>
       </c>
       <c r="AW110" t="n">
         <v>0.9983813853274819</v>
@@ -18509,7 +18509,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S111" t="n">
-        <v>147.0170415553021</v>
+        <v>115.117117444246</v>
       </c>
       <c r="T111" t="n">
         <v>975.3990845285531</v>
@@ -18519,17 +18519,17 @@
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>67ceb424c2b416b6d2294646</t>
+          <t>67d5f7f9edc0e4da26de4a3d</t>
         </is>
       </c>
       <c r="W111" t="n">
-        <v>123.5897760768122</v>
+        <v>96.77312655071141</v>
       </c>
       <c r="X111" t="n">
-        <v>530</v>
+        <v>415</v>
       </c>
       <c r="Y111" t="n">
-        <v>126.0539581026294</v>
+        <v>98.70262757092678</v>
       </c>
       <c r="Z111" t="n">
         <v>892.2377196</v>
@@ -18549,58 +18549,58 @@
         <v>820.1710380545937</v>
       </c>
       <c r="AE111" t="n">
-        <v>6.666128179804417</v>
+        <v>16.47840906675694</v>
       </c>
       <c r="AF111" t="n">
-        <v>11.20658671953603</v>
+        <v>30.47308205397633</v>
       </c>
       <c r="AG111" t="n">
-        <v>2.126488951247553</v>
+        <v>23.36319417880706</v>
       </c>
       <c r="AH111" t="n">
-        <v>7.723776076812186</v>
+        <v>19.09287344928859</v>
       </c>
       <c r="AI111" t="n">
-        <v>15.5982239231878</v>
+        <v>42.41487344928858</v>
       </c>
       <c r="AJ111" t="n">
-        <v>2.685223923187849</v>
+        <v>29.50187344928862</v>
       </c>
       <c r="AK111" t="n">
-        <v>10.18795810262937</v>
+        <v>17.16337242907322</v>
       </c>
       <c r="AL111" t="n">
-        <v>13.13404189737062</v>
+        <v>40.48537242907321</v>
       </c>
       <c r="AM111" t="n">
-        <v>0.221041897370668</v>
+        <v>27.57237242907325</v>
       </c>
       <c r="AN111" t="n">
-        <v>8.792879794443035</v>
+        <v>14.81312242510591</v>
       </c>
       <c r="AO111" t="n">
-        <v>9.436188390788447</v>
+        <v>29.08682675882491</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.175048028010824</v>
+        <v>21.83517911627262</v>
       </c>
       <c r="AQ111" t="n">
-        <v>31.15104155530214</v>
+        <v>0.748882555753994</v>
       </c>
       <c r="AR111" t="n">
-        <v>7.829041555302155</v>
+        <v>24.07088255575398</v>
       </c>
       <c r="AS111" t="n">
-        <v>20.74204155530211</v>
+        <v>11.15788255575403</v>
       </c>
       <c r="AT111" t="n">
-        <v>26.885403444757</v>
+        <v>0.646335038539342</v>
       </c>
       <c r="AU111" t="n">
-        <v>5.624796358380144</v>
+        <v>17.29379153070235</v>
       </c>
       <c r="AV111" t="n">
-        <v>16.42608715525805</v>
+        <v>8.836177038807385</v>
       </c>
       <c r="AW111" t="n">
         <v>0.9839533610792095</v>
@@ -18779,7 +18779,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>67ceb425c2b416b6d2294728</t>
+          <t>67d5f7faedc0e4da26de4b1f</t>
         </is>
       </c>
       <c r="W113" t="n">
@@ -19039,7 +19039,7 @@
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>67ceb424c2b416b6d229465f</t>
+          <t>67d5f7f9edc0e4da26de4a56</t>
         </is>
       </c>
       <c r="W115" t="n">
@@ -19202,7 +19202,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>67ceb424c2b416b6d22946c4</t>
+          <t>67d5f7f9edc0e4da26de4abb</t>
         </is>
       </c>
       <c r="W116" t="n">
@@ -19753,7 +19753,7 @@
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>67ceb425c2b416b6d22946e1</t>
+          <t>67d5f7f9edc0e4da26de4ad8</t>
         </is>
       </c>
       <c r="W121" t="n">
@@ -19916,7 +19916,7 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>67ceb424c2b416b6d22946d1</t>
+          <t>67d5f7f9edc0e4da26de4ac8</t>
         </is>
       </c>
       <c r="W122" t="n">
@@ -20467,7 +20467,7 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>67ceb425c2b416b6d22946ec</t>
+          <t>67d5f7f9edc0e4da26de4ae3</t>
         </is>
       </c>
       <c r="W127" t="n">
@@ -20630,7 +20630,7 @@
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>67ceb424c2b416b6d2294683</t>
+          <t>67d5f7f9edc0e4da26de4a7a</t>
         </is>
       </c>
       <c r="W128" t="n">
@@ -20793,7 +20793,7 @@
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>67ceb425c2b416b6d22946fe</t>
+          <t>67d5f7f9edc0e4da26de4af5</t>
         </is>
       </c>
       <c r="W129" t="n">
@@ -20956,7 +20956,7 @@
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>67ceb425c2b416b6d2294709</t>
+          <t>67d5f7f9edc0e4da26de4b00</t>
         </is>
       </c>
       <c r="W130" t="n">
@@ -21119,7 +21119,7 @@
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>67ceb424c2b416b6d2294635</t>
+          <t>67d5f7f9edc0e4da26de4a2c</t>
         </is>
       </c>
       <c r="W131" t="n">
@@ -21272,7 +21272,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S132" t="n">
-        <v>141.1749857336576</v>
+        <v>139.1594536135817</v>
       </c>
       <c r="T132" t="n">
         <v>1073.223771253512</v>
@@ -21282,11 +21282,11 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>67ceb425c2b416b6d229471b</t>
+          <t>67d5f7f9edc0e4da26de4b12</t>
         </is>
       </c>
       <c r="W132" t="n">
-        <v>146.9472672024849</v>
+        <v>144.9083629014875</v>
       </c>
       <c r="X132" t="n">
         <v>455</v>
@@ -21312,22 +21312,22 @@
         <v>1117.329531229739</v>
       </c>
       <c r="AE132" t="n">
-        <v>14.01602011319173</v>
+        <v>12.43403932364044</v>
       </c>
       <c r="AF132" t="n">
-        <v>1.956793107804158</v>
+        <v>0.5421349930877016</v>
       </c>
       <c r="AG132" t="n">
-        <v>7.0716451250236</v>
+        <v>5.586018056781088</v>
       </c>
       <c r="AH132" t="n">
-        <v>18.0642672024849</v>
+        <v>16.02536290148751</v>
       </c>
       <c r="AI132" t="n">
-        <v>2.820267202484899</v>
+        <v>0.7813629014875119</v>
       </c>
       <c r="AJ132" t="n">
-        <v>9.70526720248489</v>
+        <v>7.666362901487503</v>
       </c>
       <c r="AK132" t="n">
         <v>18.54122798163721</v>
@@ -21348,22 +21348,22 @@
         <v>7.419177789333584</v>
       </c>
       <c r="AQ132" t="n">
-        <v>12.29198573365755</v>
+        <v>10.27645361358165</v>
       </c>
       <c r="AR132" t="n">
-        <v>2.952014266342445</v>
+        <v>4.967546386418348</v>
       </c>
       <c r="AS132" t="n">
-        <v>3.932985733657546</v>
+        <v>1.917453613581642</v>
       </c>
       <c r="AT132" t="n">
-        <v>9.537321239928891</v>
+        <v>7.973474867578852</v>
       </c>
       <c r="AU132" t="n">
-        <v>2.048203505479504</v>
+        <v>3.446645240946074</v>
       </c>
       <c r="AV132" t="n">
-        <v>2.865730413180765</v>
+        <v>1.39713324899203</v>
       </c>
       <c r="AW132" t="n">
         <v>0.9965207047718564</v>
@@ -21445,7 +21445,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>67ceb424c2b416b6d22946a8</t>
+          <t>67d5f7f9edc0e4da26de4a9f</t>
         </is>
       </c>
       <c r="W133" t="n">

--- a/updated_filtered_data_with_lengths_body-kalkar.xlsx
+++ b/updated_filtered_data_with_lengths_body-kalkar.xlsx
@@ -772,7 +772,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f67ac</t>
+          <t>680e45001529694733d7b65f</t>
         </is>
       </c>
       <c r="Y2" t="n">
@@ -941,7 +941,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f67a8</t>
+          <t>680e45001529694733d7b65b</t>
         </is>
       </c>
       <c r="Y3" t="n">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f67aa</t>
+          <t>680e45001529694733d7b65d</t>
         </is>
       </c>
       <c r="Y4" t="n">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f65f4</t>
+          <t>680e45001529694733d7b4a7</t>
         </is>
       </c>
       <c r="Y5" t="n">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f65f8</t>
+          <t>680e45001529694733d7b4ab</t>
         </is>
       </c>
       <c r="Y6" t="n">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f65f6</t>
+          <t>680e45001529694733d7b4a9</t>
         </is>
       </c>
       <c r="Y7" t="n">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f65fa</t>
+          <t>680e45001529694733d7b4ad</t>
         </is>
       </c>
       <c r="Y8" t="n">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f68bc</t>
+          <t>680e45011529694733d7b76f</t>
         </is>
       </c>
       <c r="Y9" t="n">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f68be</t>
+          <t>680e45011529694733d7b771</t>
         </is>
       </c>
       <c r="Y10" t="n">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f68c0</t>
+          <t>680e45011529694733d7b773</t>
         </is>
       </c>
       <c r="Y11" t="n">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a12</t>
+          <t>680e45011529694733d7b8c5</t>
         </is>
       </c>
       <c r="Y12" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a10</t>
+          <t>680e45011529694733d7b8c3</t>
         </is>
       </c>
       <c r="Y13" t="n">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f677d</t>
+          <t>680e45001529694733d7b630</t>
         </is>
       </c>
       <c r="Y14" t="n">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f677d</t>
+          <t>680e45001529694733d7b630</t>
         </is>
       </c>
       <c r="Y15" t="n">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f677b</t>
+          <t>680e45001529694733d7b62e</t>
         </is>
       </c>
       <c r="Y16" t="n">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f677f</t>
+          <t>680e45001529694733d7b632</t>
         </is>
       </c>
       <c r="Y17" t="n">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f691a</t>
+          <t>680e45011529694733d7b7cd</t>
         </is>
       </c>
       <c r="Y18" t="n">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f691c</t>
+          <t>680e45011529694733d7b7cf</t>
         </is>
       </c>
       <c r="Y19" t="n">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6676</t>
+          <t>680e45001529694733d7b529</t>
         </is>
       </c>
       <c r="Y20" t="n">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6674</t>
+          <t>680e45001529694733d7b527</t>
         </is>
       </c>
       <c r="Y21" t="n">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6672</t>
+          <t>680e45001529694733d7b525</t>
         </is>
       </c>
       <c r="Y22" t="n">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>67ee47ee23277aaaac7f65a4</t>
+          <t>680e44ff1529694733d7b457</t>
         </is>
       </c>
       <c r="Y23" t="n">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>67ee47ee23277aaaac7f65a6</t>
+          <t>680e44ff1529694733d7b459</t>
         </is>
       </c>
       <c r="Y24" t="n">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>67ee47ee23277aaaac7f65a2</t>
+          <t>680e44ff1529694733d7b455</t>
         </is>
       </c>
       <c r="Y25" t="n">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f674e</t>
+          <t>680e45001529694733d7b601</t>
         </is>
       </c>
       <c r="Y26" t="n">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f674a</t>
+          <t>680e45001529694733d7b5fd</t>
         </is>
       </c>
       <c r="Y27" t="n">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f674c</t>
+          <t>680e45001529694733d7b5ff</t>
         </is>
       </c>
       <c r="Y28" t="n">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f6800</t>
+          <t>680e45001529694733d7b6b3</t>
         </is>
       </c>
       <c r="Y29" t="n">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f6802</t>
+          <t>680e45001529694733d7b6b5</t>
         </is>
       </c>
       <c r="Y30" t="n">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f6806</t>
+          <t>680e45001529694733d7b6b9</t>
         </is>
       </c>
       <c r="Y31" t="n">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f6804</t>
+          <t>680e45001529694733d7b6b7</t>
         </is>
       </c>
       <c r="Y32" t="n">
@@ -6011,7 +6011,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f680a</t>
+          <t>680e45001529694733d7b6bd</t>
         </is>
       </c>
       <c r="Y33" t="n">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6634</t>
+          <t>680e45001529694733d7b4e7</t>
         </is>
       </c>
       <c r="Y34" t="n">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6636</t>
+          <t>680e45001529694733d7b4e9</t>
         </is>
       </c>
       <c r="Y35" t="n">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6636</t>
+          <t>680e45001529694733d7b4e9</t>
         </is>
       </c>
       <c r="Y36" t="n">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f67cf</t>
+          <t>680e45001529694733d7b682</t>
         </is>
       </c>
       <c r="Y37" t="n">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f67cb</t>
+          <t>680e45001529694733d7b67e</t>
         </is>
       </c>
       <c r="Y38" t="n">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f67c9</t>
+          <t>680e45001529694733d7b67c</t>
         </is>
       </c>
       <c r="Y39" t="n">
@@ -7194,7 +7194,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f67c7</t>
+          <t>680e45001529694733d7b67a</t>
         </is>
       </c>
       <c r="Y40" t="n">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f67cd</t>
+          <t>680e45001529694733d7b680</t>
         </is>
       </c>
       <c r="Y41" t="n">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f68e5</t>
+          <t>680e45011529694733d7b798</t>
         </is>
       </c>
       <c r="Y42" t="n">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f68e1</t>
+          <t>680e45011529694733d7b794</t>
         </is>
       </c>
       <c r="Y43" t="n">
@@ -7870,7 +7870,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f68e3</t>
+          <t>680e45011529694733d7b796</t>
         </is>
       </c>
       <c r="Y44" t="n">
@@ -8039,7 +8039,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f68df</t>
+          <t>680e45011529694733d7b792</t>
         </is>
       </c>
       <c r="Y45" t="n">
@@ -8208,7 +8208,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f684e</t>
+          <t>680e45001529694733d7b701</t>
         </is>
       </c>
       <c r="Y46" t="n">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f684c</t>
+          <t>680e45001529694733d7b6ff</t>
         </is>
       </c>
       <c r="Y47" t="n">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f6850</t>
+          <t>680e45001529694733d7b703</t>
         </is>
       </c>
       <c r="Y48" t="n">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>67ee47f023277aaaac7f6852</t>
+          <t>680e45001529694733d7b705</t>
         </is>
       </c>
       <c r="Y49" t="n">
@@ -8884,7 +8884,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f661d</t>
+          <t>680e45001529694733d7b4d0</t>
         </is>
       </c>
       <c r="Y50" t="n">
@@ -9053,7 +9053,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f661f</t>
+          <t>680e45001529694733d7b4d2</t>
         </is>
       </c>
       <c r="Y51" t="n">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a25</t>
+          <t>680e45011529694733d7b8d8</t>
         </is>
       </c>
       <c r="Y52" t="n">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a27</t>
+          <t>680e45011529694733d7b8da</t>
         </is>
       </c>
       <c r="Y53" t="n">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a29</t>
+          <t>680e45011529694733d7b8dc</t>
         </is>
       </c>
       <c r="Y54" t="n">
@@ -9729,7 +9729,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f6890</t>
+          <t>680e45011529694733d7b743</t>
         </is>
       </c>
       <c r="Y55" t="n">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f688e</t>
+          <t>680e45011529694733d7b741</t>
         </is>
       </c>
       <c r="Y56" t="n">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f688c</t>
+          <t>680e45011529694733d7b73f</t>
         </is>
       </c>
       <c r="Y57" t="n">
@@ -10236,7 +10236,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f6972</t>
+          <t>680e45011529694733d7b825</t>
         </is>
       </c>
       <c r="Y58" t="n">
@@ -10405,7 +10405,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f6970</t>
+          <t>680e45011529694733d7b823</t>
         </is>
       </c>
       <c r="Y59" t="n">
@@ -10574,7 +10574,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f6974</t>
+          <t>680e45011529694733d7b827</t>
         </is>
       </c>
       <c r="Y60" t="n">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f6978</t>
+          <t>680e45011529694733d7b82b</t>
         </is>
       </c>
       <c r="Y61" t="n">
@@ -10912,7 +10912,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f66c6</t>
+          <t>680e45001529694733d7b579</t>
         </is>
       </c>
       <c r="Y62" t="n">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f66c8</t>
+          <t>680e45001529694733d7b57b</t>
         </is>
       </c>
       <c r="Y63" t="n">
@@ -11250,7 +11250,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f66cc</t>
+          <t>680e45001529694733d7b57f</t>
         </is>
       </c>
       <c r="Y64" t="n">
@@ -11419,7 +11419,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6700</t>
+          <t>680e45001529694733d7b5b3</t>
         </is>
       </c>
       <c r="Y65" t="n">
@@ -11588,7 +11588,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6704</t>
+          <t>680e45001529694733d7b5b7</t>
         </is>
       </c>
       <c r="Y66" t="n">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f66ed</t>
+          <t>680e45001529694733d7b5a0</t>
         </is>
       </c>
       <c r="Y67" t="n">
@@ -11926,7 +11926,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f66eb</t>
+          <t>680e45001529694733d7b59e</t>
         </is>
       </c>
       <c r="Y68" t="n">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f69a5</t>
+          <t>680e45011529694733d7b858</t>
         </is>
       </c>
       <c r="Y69" t="n">
@@ -12264,7 +12264,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f69a9</t>
+          <t>680e45011529694733d7b85c</t>
         </is>
       </c>
       <c r="Y70" t="n">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f69a1</t>
+          <t>680e45011529694733d7b854</t>
         </is>
       </c>
       <c r="Y71" t="n">
@@ -12602,7 +12602,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6723</t>
+          <t>680e45001529694733d7b5d6</t>
         </is>
       </c>
       <c r="Y72" t="n">
@@ -12771,7 +12771,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f671d</t>
+          <t>680e45001529694733d7b5d0</t>
         </is>
       </c>
       <c r="Y73" t="n">
@@ -12940,7 +12940,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f671f</t>
+          <t>680e45001529694733d7b5d2</t>
         </is>
       </c>
       <c r="Y74" t="n">
@@ -13109,7 +13109,7 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6721</t>
+          <t>680e45001529694733d7b5d4</t>
         </is>
       </c>
       <c r="Y75" t="n">
@@ -13278,7 +13278,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a95</t>
+          <t>680e45011529694733d7b948</t>
         </is>
       </c>
       <c r="Y76" t="n">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a99</t>
+          <t>680e45011529694733d7b94c</t>
         </is>
       </c>
       <c r="Y77" t="n">
@@ -13616,7 +13616,7 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a97</t>
+          <t>680e45011529694733d7b94a</t>
         </is>
       </c>
       <c r="Y78" t="n">
@@ -13785,7 +13785,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a9b</t>
+          <t>680e45011529694733d7b94e</t>
         </is>
       </c>
       <c r="Y79" t="n">
@@ -13952,7 +13952,7 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f66aa</t>
+          <t>680e45001529694733d7b55d</t>
         </is>
       </c>
       <c r="Y80" t="n">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6ac2</t>
+          <t>680e45011529694733d7b975</t>
         </is>
       </c>
       <c r="Y81" t="n">
@@ -14290,7 +14290,7 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6ac0</t>
+          <t>680e45011529694733d7b973</t>
         </is>
       </c>
       <c r="Y82" t="n">
@@ -14459,7 +14459,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6aca</t>
+          <t>680e45011529694733d7b97d</t>
         </is>
       </c>
       <c r="Y83" t="n">
@@ -14626,7 +14626,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f6931</t>
+          <t>680e45011529694733d7b7e4</t>
         </is>
       </c>
       <c r="Y84" t="n">
@@ -14795,7 +14795,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f6933</t>
+          <t>680e45011529694733d7b7e6</t>
         </is>
       </c>
       <c r="Y85" t="n">
@@ -14964,7 +14964,7 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f694c</t>
+          <t>680e45011529694733d7b7ff</t>
         </is>
       </c>
       <c r="Y86" t="n">
@@ -15133,7 +15133,7 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a44</t>
+          <t>680e45011529694733d7b8f7</t>
         </is>
       </c>
       <c r="Y87" t="n">
@@ -15302,7 +15302,7 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f6965</t>
+          <t>680e45011529694733d7b818</t>
         </is>
       </c>
       <c r="Y88" t="n">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f6659</t>
+          <t>680e45001529694733d7b50c</t>
         </is>
       </c>
       <c r="Y89" t="n">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f665b</t>
+          <t>680e45001529694733d7b50e</t>
         </is>
       </c>
       <c r="Y90" t="n">
@@ -15809,7 +15809,7 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f65cd</t>
+          <t>680e45001529694733d7b480</t>
         </is>
       </c>
       <c r="Y91" t="n">
@@ -15978,7 +15978,7 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f65cb</t>
+          <t>680e45001529694733d7b47e</t>
         </is>
       </c>
       <c r="Y92" t="n">
@@ -16147,7 +16147,7 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f65c7</t>
+          <t>680e45001529694733d7b47a</t>
         </is>
       </c>
       <c r="Y93" t="n">
@@ -16316,7 +16316,7 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>67ee47ef23277aaaac7f65c9</t>
+          <t>680e45001529694733d7b47c</t>
         </is>
       </c>
       <c r="Y94" t="n">
@@ -16485,7 +16485,7 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f69e3</t>
+          <t>680e45011529694733d7b896</t>
         </is>
       </c>
       <c r="Y95" t="n">
@@ -16654,7 +16654,7 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f69e1</t>
+          <t>680e45011529694733d7b894</t>
         </is>
       </c>
       <c r="Y96" t="n">
@@ -16823,7 +16823,7 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f69e5</t>
+          <t>680e45011529694733d7b898</t>
         </is>
       </c>
       <c r="Y97" t="n">
@@ -16992,7 +16992,7 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f69e7</t>
+          <t>680e45011529694733d7b89a</t>
         </is>
       </c>
       <c r="Y98" t="n">
@@ -17161,7 +17161,7 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f69ce</t>
+          <t>680e45011529694733d7b881</t>
         </is>
       </c>
       <c r="Y99" t="n">
@@ -17330,7 +17330,7 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f69cc</t>
+          <t>680e45011529694733d7b87f</t>
         </is>
       </c>
       <c r="Y100" t="n">
@@ -17499,7 +17499,7 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>67ee47f123277aaaac7f68b1</t>
+          <t>680e45011529694733d7b764</t>
         </is>
       </c>
       <c r="Y101" t="n">
@@ -17668,7 +17668,7 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a64</t>
+          <t>680e45011529694733d7b917</t>
         </is>
       </c>
       <c r="Y102" t="n">
@@ -17837,7 +17837,7 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a64</t>
+          <t>680e45011529694733d7b917</t>
         </is>
       </c>
       <c r="Y103" t="n">
@@ -18006,7 +18006,7 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a64</t>
+          <t>680e45011529694733d7b917</t>
         </is>
       </c>
       <c r="Y104" t="n">
@@ -18175,7 +18175,7 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a66</t>
+          <t>680e45011529694733d7b919</t>
         </is>
       </c>
       <c r="Y105" t="n">
@@ -18344,7 +18344,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a62</t>
+          <t>680e45011529694733d7b915</t>
         </is>
       </c>
       <c r="Y106" t="n">
@@ -18513,7 +18513,7 @@
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6a53</t>
+          <t>680e45011529694733d7b906</t>
         </is>
       </c>
       <c r="Y107" t="n">
@@ -18682,7 +18682,7 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6aed</t>
+          <t>680e45011529694733d7b9a0</t>
         </is>
       </c>
       <c r="Y108" t="n">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>67ee47f223277aaaac7f6aeb</t>
+          <t>680e45011529694733d7b99e</t>
         </is>
       </c>
       <c r="Y109" t="n">
@@ -19020,7 +19020,7 @@
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6b3a</t>
+          <t>680e45011529694733d7b9ed</t>
         </is>
       </c>
       <c r="Y110" t="n">
@@ -19189,7 +19189,7 @@
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6b3e</t>
+          <t>680e45011529694733d7b9f1</t>
         </is>
       </c>
       <c r="Y111" t="n">
@@ -19457,7 +19457,7 @@
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6c41</t>
+          <t>680e45021529694733d7baff</t>
         </is>
       </c>
       <c r="Y113" t="n">
@@ -19725,7 +19725,7 @@
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6b53</t>
+          <t>680e45021529694733d7ba06</t>
         </is>
       </c>
       <c r="Y115" t="n">
@@ -19894,7 +19894,7 @@
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6bbc</t>
+          <t>680e45021529694733d7ba6f</t>
         </is>
       </c>
       <c r="Y116" t="n">
@@ -20459,7 +20459,7 @@
       </c>
       <c r="X121" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6be7</t>
+          <t>680e45021529694733d7ba9a</t>
         </is>
       </c>
       <c r="Y121" t="n">
@@ -20628,7 +20628,7 @@
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6bd1</t>
+          <t>680e45021529694733d7ba84</t>
         </is>
       </c>
       <c r="Y122" t="n">
@@ -21193,7 +21193,7 @@
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6bf9</t>
+          <t>680e45021529694733d7baac</t>
         </is>
       </c>
       <c r="Y127" t="n">
@@ -21362,7 +21362,7 @@
       </c>
       <c r="X128" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6b75</t>
+          <t>680e45021529694733d7ba28</t>
         </is>
       </c>
       <c r="Y128" t="n">
@@ -21531,7 +21531,7 @@
       </c>
       <c r="X129" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6c0f</t>
+          <t>680e45021529694733d7bac2</t>
         </is>
       </c>
       <c r="Y129" t="n">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="X130" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6c1c</t>
+          <t>680e45021529694733d7bacf</t>
         </is>
       </c>
       <c r="Y130" t="n">
@@ -21869,7 +21869,7 @@
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6b27</t>
+          <t>680e45011529694733d7b9da</t>
         </is>
       </c>
       <c r="Y131" t="n">
@@ -22038,7 +22038,7 @@
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6c32</t>
+          <t>680e45021529694733d7bae5</t>
         </is>
       </c>
       <c r="Y132" t="n">
@@ -22207,7 +22207,7 @@
       </c>
       <c r="X133" t="inlineStr">
         <is>
-          <t>67ee47f323277aaaac7f6ba2</t>
+          <t>680e45021529694733d7ba55</t>
         </is>
       </c>
       <c r="Y133" t="n">
